--- a/biology/Médecine/1101_en_santé_et_médecine/1101_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1101_en_santé_et_médecine/1101_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1101_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1101_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1101 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1101_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1101_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>« Robert de Normandie passant d'Italie en France y apport[e] les préceptes de l'école de Salerne[1] ».
-Faricius (en) († 1117), abbé d'Abingdon, « qui concili[e] activement abbatiat et pratique de la médecine[2] » assiste avec Grimbald (fl. 1101-1130) la reine Mathilde lors de ses premières couches[3].
-Louis, dit « le Gros », héritier de France, est sauvé d'une grave maladie par un homme « venu de Barbarie » selon Orderic Vital, peut-être Zour, médecin et astrologue juif originaire d'Avignon[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>« Robert de Normandie passant d'Italie en France y apport[e] les préceptes de l'école de Salerne ».
+Faricius (en) († 1117), abbé d'Abingdon, « qui concili[e] activement abbatiat et pratique de la médecine » assiste avec Grimbald (fl. 1101-1130) la reine Mathilde lors de ses premières couches.
+Louis, dit « le Gros », héritier de France, est sauvé d'une grave maladie par un homme « venu de Barbarie » selon Orderic Vital, peut-être Zour, médecin et astrologue juif originaire d'Avignon.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1101_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1101_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fondation, près de Londres, par la reine Mathilde, femme d'Henri Ier, d'une léproserie destinée à l'entretien de quarante malades et qui est à l'origine de l'hôpital St. Giles in the Fields (« Saint-Gilles des Champs[5],[6] »).
-Fondation de l'ordre de Fontevraud, en Anjou, qui, dès les premières années, accueillera des lépreux dans son prieuré Saint-Lazare[7] et des malades dans ses infirmeries Saint-Benoît[8].
-Vers 1101-1102 : Girard II, évêque d'Angoulême, crée près de Lunesse, sur l'actuelle commune de Soyaux, une maladrerie qui prendra le nom de Saint-Lazare et à l'emplacement de laquelle, en 1623, sera fondé l'hôpital Saint-Roch[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fondation, près de Londres, par la reine Mathilde, femme d'Henri Ier, d'une léproserie destinée à l'entretien de quarante malades et qui est à l'origine de l'hôpital St. Giles in the Fields (« Saint-Gilles des Champs, »).
+Fondation de l'ordre de Fontevraud, en Anjou, qui, dès les premières années, accueillera des lépreux dans son prieuré Saint-Lazare et des malades dans ses infirmeries Saint-Benoît.
+Vers 1101-1102 : Girard II, évêque d'Angoulême, crée près de Lunesse, sur l'actuelle commune de Soyaux, une maladrerie qui prendra le nom de Saint-Lazare et à l'emplacement de laquelle, en 1623, sera fondé l'hôpital Saint-Roch.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1101_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1101_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,11 +591,13 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Geoffroi, médecin nantais, qui accompagne à Jérusalem Herbert de La Chaise et l'assiste dans ses derniers moments à Jaffa[3].
-1101-1130 : fl. Grimbald, médecin d'Henri Ier, roi d'Angleterre, qui, avec Faricius (en), assiste la reine Mathilde à Winchester lors de ses premières couches[10].
-1101-1129 : fl. Gaucelin et Gilesbert, saigneurs, cités dans des chartes de l'abbaye Saint-Père de Chartres[3].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Geoffroi, médecin nantais, qui accompagne à Jérusalem Herbert de La Chaise et l'assiste dans ses derniers moments à Jaffa.
+1101-1130 : fl. Grimbald, médecin d'Henri Ier, roi d'Angleterre, qui, avec Faricius (en), assiste la reine Mathilde à Winchester lors de ses premières couches.
+1101-1129 : fl. Gaucelin et Gilesbert, saigneurs, cités dans des chartes de l'abbaye Saint-Père de Chartres.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1101_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1101_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Abu al-Bayan ibn al-Mudawwar (en) (mort en 1184), médecin karaïte du Caire au service de Saladin[11].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Abu al-Bayan ibn al-Mudawwar (en) (mort en 1184), médecin karaïte du Caire au service de Saladin.</t>
         </is>
       </c>
     </row>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1101_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1101_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,11 +657,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Gilbert Maminot (né à une date inconnue), médecin et chapelain de Guillaume le Conquérant, également au service de la reine Mathilde[3].
-Su Song (né en 1017), ingénieur, cartographe, pharmacologue, médecin, polygraphe chinois, auteur en 1061 ou 1062 d'une « matière médicale illustrée », le Tujing bencao[12],[13].
-1101 ou 1102 : Abu'l Hasan Said ibn Hibatullah (né à une date inconnue), médecin, maître d'Abu'l Barakat Hibatullah ibn Malka, qui aura à son tour pour disciple Fakhr al-Din al-Razi[14].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Gilbert Maminot (né à une date inconnue), médecin et chapelain de Guillaume le Conquérant, également au service de la reine Mathilde.
+Su Song (né en 1017), ingénieur, cartographe, pharmacologue, médecin, polygraphe chinois, auteur en 1061 ou 1062 d'une « matière médicale illustrée », le Tujing bencao,.
+1101 ou 1102 : Abu'l Hasan Said ibn Hibatullah (né à une date inconnue), médecin, maître d'Abu'l Barakat Hibatullah ibn Malka, qui aura à son tour pour disciple Fakhr al-Din al-Razi.</t>
         </is>
       </c>
     </row>
